--- a/dados/historico/times/rodada_26/Palmeiras.xlsx
+++ b/dados/historico/times/rodada_26/Palmeiras.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -729,10 +729,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Matchweek 1</t>
-        </is>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -900,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -917,10 +915,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Matchweek 3</t>
-        </is>
+      <c r="E3" t="n">
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1088,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1105,10 +1101,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Matchweek 5</t>
-        </is>
+      <c r="E4" t="n">
+        <v>5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1293,10 +1287,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Matchweek 6</t>
-        </is>
+      <c r="E5" t="n">
+        <v>6</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1464,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1481,10 +1473,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Matchweek 9</t>
-        </is>
+      <c r="E6" t="n">
+        <v>9</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1652,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1669,10 +1659,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Matchweek 12</t>
-        </is>
+      <c r="E7" t="n">
+        <v>12</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1840,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1857,10 +1845,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Matchweek 14</t>
-        </is>
+      <c r="E8" t="n">
+        <v>14</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2026,7 +2012,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2043,10 +2029,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Matchweek 16</t>
-        </is>
+      <c r="E9" t="n">
+        <v>16</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2212,7 +2196,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2229,10 +2213,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Matchweek 19</t>
-        </is>
+      <c r="E10" t="n">
+        <v>19</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2400,7 +2382,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2417,10 +2399,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Matchweek 21</t>
-        </is>
+      <c r="E11" t="n">
+        <v>21</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2588,7 +2568,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2605,10 +2585,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Matchweek 23</t>
-        </is>
+      <c r="E12" t="n">
+        <v>23</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2774,7 +2752,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2791,10 +2769,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Matchweek 26</t>
-        </is>
+      <c r="E13" t="n">
+        <v>26</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2960,27 +2936,25 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Série A</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>25</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2023-10-01</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>18:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Série A</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Matchweek 25</t>
-        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -3146,7 +3120,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3163,10 +3137,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Matchweek 24</t>
-        </is>
+      <c r="E15" t="n">
+        <v>24</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3332,7 +3304,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3349,10 +3321,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Matchweek 18</t>
-        </is>
+      <c r="E16" t="n">
+        <v>18</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3520,7 +3490,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3537,10 +3507,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Matchweek 13</t>
-        </is>
+      <c r="E17" t="n">
+        <v>13</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3708,7 +3676,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3725,10 +3693,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Matchweek 8</t>
-        </is>
+      <c r="E18" t="n">
+        <v>8</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3896,7 +3862,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3913,10 +3879,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Matchweek 10</t>
-        </is>
+      <c r="E19" t="n">
+        <v>10</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -4084,7 +4048,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4101,10 +4065,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Matchweek 20</t>
-        </is>
+      <c r="E20" t="n">
+        <v>20</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -4270,7 +4232,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4287,10 +4249,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Matchweek 15</t>
-        </is>
+      <c r="E21" t="n">
+        <v>15</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4458,7 +4418,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4475,10 +4435,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Matchweek 22</t>
-        </is>
+      <c r="E22" t="n">
+        <v>22</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -4644,7 +4602,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4661,10 +4619,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Matchweek 7</t>
-        </is>
+      <c r="E23" t="n">
+        <v>7</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -4832,7 +4788,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4849,10 +4805,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Matchweek 11</t>
-        </is>
+      <c r="E24" t="n">
+        <v>11</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5020,7 +4974,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5037,10 +4991,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Matchweek 2</t>
-        </is>
+      <c r="E25" t="n">
+        <v>2</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5208,7 +5160,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5225,10 +5177,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Matchweek 4</t>
-        </is>
+      <c r="E26" t="n">
+        <v>4</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5396,7 +5346,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5413,10 +5363,8 @@
           <t>Série A</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Matchweek 17</t>
-        </is>
+      <c r="E27" t="n">
+        <v>17</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>

--- a/dados/historico/times/rodada_26/Palmeiras.xlsx
+++ b/dados/historico/times/rodada_26/Palmeiras.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>32</v>
+        <v>358</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>9</v>
+        <v>370</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1</v>
+        <v>417</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>6</v>
+        <v>445</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>23</v>
+        <v>509</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
